--- a/subsid.xlsx
+++ b/subsid.xlsx
@@ -456,20 +456,17 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Установка 
-АМС</t>
+          <t>Установка АМС</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Монтаж 
-БС</t>
+          <t>Монтаж БС</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Запуск 
-услуг</t>
+          <t>Запуск услуг</t>
         </is>
       </c>
     </row>
@@ -692,26 +689,10 @@
           <t>Хомутово д.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1132,26 +1113,10 @@
           <t>Бобровка с.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1172,26 +1137,10 @@
           <t>Михайловка с.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1212,26 +1161,10 @@
           <t>Антропово с.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1252,26 +1185,10 @@
           <t>Костеньки д.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1292,26 +1209,10 @@
           <t>Завировка д.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1332,26 +1233,10 @@
           <t>Бакчет с.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1372,26 +1257,10 @@
           <t>Красный Хутор п.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>н/д</t>
-        </is>
-      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/subsid.xlsx
+++ b/subsid.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>МО</t>
+          <t>Муниципалитет</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Н.п.</t>
+          <t>Населенный пункт</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -689,10 +689,26 @@
           <t>Хомутово д.</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1096,7 +1112,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1113,14 +1129,30 @@
           <t>Бобровка с.</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1137,14 +1169,30 @@
           <t>Михайловка с.</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1161,14 +1209,30 @@
           <t>Антропово с.</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1185,14 +1249,30 @@
           <t>Костеньки д.</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1209,14 +1289,30 @@
           <t>Завировка д.</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
@@ -1233,14 +1329,30 @@
           <t>Бакчет с.</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
@@ -1257,10 +1369,26 @@
           <t>Красный Хутор п.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>нет данных</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/subsid.xlsx
+++ b/subsid.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,7 +500,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>июнь</t>
+          <t>+</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -531,12 +535,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Подали на РНР 13.05</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>30.07</t>
+          <t>15.08</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -571,22 +575,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Подали на РНР 13.05</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>30.07</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>30.08</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>30.07</t>
         </is>
       </c>
     </row>
@@ -611,22 +615,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Подали на РНР 13.05</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>30.07</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>30.08</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>30.08</t>
+          <t>30.07</t>
         </is>
       </c>
     </row>
@@ -731,7 +735,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Подали на РНР 08.05.2024</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -771,7 +775,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Подали на РНР 13.05</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -811,7 +815,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Соглас-ся кандидаты в МФ</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1051,7 +1055,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Подали на РНР 13.05</t>
+          <t>+</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1369,24 +1373,22 @@
           <t>Красный Хутор п.</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>нет данных</t>
-        </is>
+      <c r="E24" s="2" t="n">
+        <v>45504</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>нет данных</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>нет данных</t>
+          <t>30.10</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>нет данных</t>
+          <t>30.11</t>
         </is>
       </c>
     </row>
